--- a/Pokemon_Server/data/pkm_stats.xlsx
+++ b/Pokemon_Server/data/pkm_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>stat_id</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>evasion</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -484,8 +490,8 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -504,8 +510,8 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -524,8 +530,8 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -544,8 +550,8 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -561,8 +567,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -578,8 +584,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,8 +598,8 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
